--- a/evaluace.xlsx
+++ b/evaluace.xlsx
@@ -657,233 +657,143 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>06.014.01</t>
+          <t>03.002.01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IROP  •  Evaluace PO1 a PO3 IROP: Případové studie</t>
+          <t>OP Z  •  Evaluace národních a regionálních projektů APZ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Evaluace PO1 a PO3 IROP: Případové studie</t>
+          <t>Evaluace národních a regionálních projektů APZ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Evaluace PO1 a PO3 IROP</t>
+          <t>Evaluace národních a regionálních projektů APZ</t>
         </is>
       </c>
       <c r="F4" s="2">
-        <v>45306</v>
+        <v>45291</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>v realizaci</t>
+          <t>ukončeno</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>Vyhodnocení výsledků projektů realizovaných v rámci specifických cílů 1.1, 1.2 a 1.3 Prioritní osy 1 IROP a projektů realizovaných v rámci specifických cílů 3.1 a 3.2 Prioritní osy 3 IROP.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Realizace výzkumu a zpracování evaluačních zpráv.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Ne</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Dopad/výsledky</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>plnění cílů</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>ex-post</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Dopadová/Výsledková</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTkxMjAzNTg1NDtQcmlsb2hhRE1TO0ZhbHNl</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>231130_Zaverecna_zprava_EvaluacePO1_3_IROP_FINAL.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>OP Z</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>03.002.01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>OP Z  •  Evaluace národních a regionálních projektů APZ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Evaluace národních a regionálních projektů APZ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Evaluace národních a regionálních projektů APZ</t>
-        </is>
-      </c>
-      <c r="F5" s="2">
-        <v>45291</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ukončeno</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>Jedná se o kvantitativní vyhodnocení projektů APZ na základě dat z IS ESF. 
 Bude se realizovat opakovaně, zaměří se na všechny projekty APZ.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve">Realizuje se průběžně, zaměřuje se na všechny projekty APZ, jedná se o kvantitativní vyhodnocení projektů APZ na základě dat z IS ESF. Realizace RIPů byla prodloužena.  
 V únoru 2019 byla dokončena sebeevaluace NOPP - SÚPM a NOPP - VPP. V průběhu roku 2021 byly dále realizovány interní evaluace projektů NOPP - SÚPM a NOPP - VPP a regionálních projektů zaměřených na CS 50+. </t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">Oba projekty se vzájemně lišily v sociodemografické struktuře podpořených osob. Zatímco v projektu NoPP-SÚPM převažovaly ženy (64 %), u projektu NoPP-VPP byl podíl mužů a žen srovnatelný. V projektu NoPP-SÚPM byly majoritně zastoupeny osoby se SŠ vzděláním (72 %), osoby s VŠ vzděláním (12 %) a se ZŠ vzděláním (15 %) byly zastoupeny výrazně méně. Oproti tomu v projektu NoPP-VPP byl podíl osob se SŠ vzděláním (47 %) a se ZŠ vzděláním (46 %) téměř stejný. Pravděpodobnost zaměstnání u obou projektů souvisí zejména s dosaženým vzděláním. U projektu NoPP-SÚPM je průměrná délka podpory 5,6 měsíců. Delší podporu obecně dostávaly ženy než muži a osoby starší. Delší podporu získávaly osoby s vyšším vzděláním oproti těm s nižším. Poměrně velká část podpořených osob byla zapojena také do dalších projektů OPZ. U projektu NoPP-VPP byla opakovaná účast v projektech OPZ ještě častější. Předcházející podporu mělo 23 % osob a další účast mělo 17 % osob. U obou projektů platí, že 12 měsíců před zahájením podpory byla zhruba polovina osob nezaměstnaná. V období 18 měsíců po začátku podpory bylo zaměstnáno 74 % osob z projektu NoPP-SÚPM a pouze 46 % osob z projektu NoPP-VPP. Logistickou regresí se ukázalo, že pravděpodobnost zaměstnání u obou skupin osob souvisí zejména s dosaženým vzděláním.
 Pro uplatnění osob na TP se právě vzdělání ukazuje jako zásadní. ÚP může působit na vzdělání ve 3 hlavních fázích: 1. kariérové poradenství a diagnostika pro školy a žáky a rodiče v rámci IPS (prevence předčasných odchodů, nezaměstnanosti); 2. poradenství směřující k motivaci mladých, kteří nedokončili vzdělávání, návraty do vzdělávání; 3. podpora rekvalifikací u dospělých osob i u ZŠ a starších osob, zejména rekvalifikací náročnějších. Bylo by vhodné upřednostňovat nástroje směřující k získání nebo zvýšení vzdělání / kvalifikace před zapojením do pracovního procesu. 
 </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Dopad/výsledky</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Dopadová/Výsledková</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7NTQyMTU0Nzg7UHJpbG9oYURNUztGYWxzZQ==</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Analýza projektů NoPP-SÚPM a NoPP-VPP.pdf</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>OP Z</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>03.011.02</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>OP Z  •  Evaluace výsledků pilotní podpory mezinárodní mobility znevýhodněné mládeže</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Evaluace výsledků pilotní podpory mezinárodní mobility znevýhodněné mládeže</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vyhodnocení mezinárodní mobility znevýhodněné mládeže - výzva 59 </t>
         </is>
       </c>
-      <c r="F6" s="2">
+      <c r="F5" s="2">
         <v>45291</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>ukončeno</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Předmětem evaluace jsou soutěžní výzvy na podporu mezinárodní mobility mládeže v rámci IP 3.1. OPZ (SC 1) Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ. Jedná se o pilotní podporu (testování nového nástroje APZ, úspěšně aplikovaného v Německu, program IDA) zaměřenou na pracovní a sociální integraci znevýhodněných osob do 30 let prostřednictvím stáží u zaměstnavatelů v zahraničí. Cílem je zvýšit pracovní a sociální dovednosti a kompetence účastníků a eliminovat negativní návyky a chování, a tím zlepšit jejich sociální situaci a zvýšit jejich zaměstnanost. 
 Navazující výzva (59) byla vyhlášena v říjnu 2018.  Pro účely evaluace navazující výzvy již od června 2019 probíhá sběr dat formou dotazníků. Data formou dotazníků jsou nastaveny ve formátu tří snímků (před intervencí, během stáže a po ukončení účasti na projektových aktivitách). V roce 2021 byla připravena a vyhlášena veřejná zakázka na kvalitativní došetření výzvy 059.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Ve 3Q 2019 byla dokončena Závěrečná zpráva výzvy 32. Od konce roku 2018 probíhala příprava evaluace navazující výzvy 59. Od června 2019 se rozběhl vstupní dotazník podle začátku realizace jednotlivých projektů, od listopadu 2019 jsou sbírána data ve 2. snímku, od září 2020 ve 3. snímku. V roce  2021 byla připravena a vyhlášena veřejná zakázka na kvalitativní došetření. Vstupní zpráva této zakázky byla akceptována na začátku února 2022, průběžná zpráva pak v polovině července tohoto roku. Závěrečná zpráva je plánována na začátek příštího roku. Souběžně s tím probíhá sběr kvantitativních dat o podpořených osobách.</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">Za jeden z nejviditelnějších přínosů stáže lze považovat zvýšení úrovně znalosti cizího jazyka, v němž stáž probíhala, přičemž největší posun byl zaznamenán u osob, které do projektu vstupovaly bez jakékoliv znalosti cizího jazyka.
 Účast v projektech dala účastníkům cenné zkušenosti a dovednosti, ale zároveň zdůraznila potřebu zaměřit se na specifické překážky, které stojí v cestě jejich úspěšné integraci na trh práce. Nejvýraznější efekty projektů jsou patrné v následujících oblastech:
@@ -894,6 +804,99 @@
 v oboru své zahraniční stáže. Pouze čtyři procenta osob se vrátila do procesu vzdělávání. Zjištění z výpovědí účastníků ale nekorespondují se zjištěními z administrativních dat (IS ESF 2014+), dle kterých podíl zaměstnaných nebo OSVČ činí přibližně 30 procent, podíl neaktivních osob přibližně 40 procent a podíl nezaměstnaných odpovídá přibližně 30 procentům. </t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Dopad/výsledky</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ex-post</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Dopadová/Výsledková</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQxNzA1NzcxO1ByaWxvaGFETVM7RmFsc2U=</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Mezinárodní Mobilita_finál_2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OP Z</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03.012.03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OP Z  •  Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+        </is>
+      </c>
+      <c r="F6" s="2">
+        <v>45291</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ukončeno</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tato evaluace bude hodnotit především přispění ke zvýšení zaměstnanosti cílových skupin mladých uchazečů o zaměstnání do 30 let. 
+</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tato evaluace bude hodnotit především přispění ke zvýšení zaměstnanosti cílových skupin mladých uchazečů o zaměstnání do 30 let. 
+Na rok 2023 je plánovaná závěrečná evaluace iniciativy YEI, ve které budou využity také závěry evaluace Záruky pro mladé, která je v současné době realizována v rámci evaluace projektů RIP. </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Na dlouhodobé uplatnění na trhu práce nemělo vliv pohlaví a věk, ale jako zásadní se ukázalo vzdělání a typ projektu
+Přibližně polovina účastníků deklarovala, že jim účast v projektu pomohla, přičemž účastníci krajských projektů toto hodnotili ještě kladněji</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Ano</t>
@@ -916,7 +919,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>ex-post</t>
+          <t>on-going</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -926,12 +929,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQxNzA1NzcxO1ByaWxvaGFETVM7RmFsc2U=</t>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQxNzYwMjA4O1ByaWxvaGFETVM7RmFsc2U=</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Mezinárodní Mobilita_finál_2.pdf</t>
+          <t>Závěrečná zpráva YEI_FINAL.pdf</t>
         </is>
       </c>
     </row>
@@ -943,22 +946,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03.012.03</t>
+          <t>03.046.01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OP Z  •  Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+          <t>OP Z  •  Evaluace soutěžních projektů v rámci IP 1.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+          <t>Evaluace soutěžních projektů v rámci IP 1.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Evaluace podpory zaměstnanosti mladých 1.1 a 1.5</t>
+          <t>Evaluace výzev 61, 62</t>
         </is>
       </c>
       <c r="F7" s="2">
@@ -971,110 +974,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tato evaluace bude hodnotit především přispění ke zvýšení zaměstnanosti cílových skupin mladých uchazečů o zaměstnání do 30 let. 
-</t>
+          <t>Procesní a dopadová evaluace projektu zaměřených na narovnávání genderových podmínek na trhu práce. Výsledky budou sloužit pro nastavení cílení projektu v dalším období.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tato evaluace bude hodnotit především přispění ke zvýšení zaměstnanosti cílových skupin mladých uchazečů o zaměstnání do 30 let. 
-Na rok 2023 je plánovaná závěrečná evaluace iniciativy YEI, ve které budou využity také závěry evaluace Záruky pro mladé, která je v současné době realizována v rámci evaluace projektů RIP. </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Na dlouhodobé uplatnění na trhu práce nemělo vliv pohlaví a věk, ale jako zásadní se ukázalo vzdělání a typ projektu
-Přibližně polovina účastníků deklarovala, že jim účast v projektu pomohla, přičemž účastníci krajských projektů toto hodnotili ještě kladněji</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Dopad/výsledky</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Dopadová/Výsledková</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQxNzYwMjA4O1ByaWxvaGFETVM7RmFsc2U=</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Závěrečná zpráva YEI_FINAL.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OP Z</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>03.046.01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>OP Z  •  Evaluace soutěžních projektů v rámci IP 1.2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Evaluace soutěžních projektů v rámci IP 1.2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Evaluace výzev 61, 62</t>
-        </is>
-      </c>
-      <c r="F8" s="2">
-        <v>45291</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ukončeno</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Procesní a dopadová evaluace projektu zaměřených na narovnávání genderových podmínek na trhu práce. Výsledky budou sloužit pro nastavení cílení projektu v dalším období.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">Pro projekty z výzev 61 a 62 analýza dat z dotazníku ZoR a z IS ESF ČR. 
 Tato evaluace hodnotí úspěšnost projektů zaměřených převážně na ženy z ohrožených skupin na trhu práce, tedy matky vracející se na TP po MD/RD a matky pečující o osoby mladší 15 let. Dále  ženy starší 50 let a ženy zapsané na ÚP déle než půl roku. Evaluace bude sloužit k zhodnocení efektivity projektů. Cílem je zhodnotit dopad těchto typů projektů na zaměstnanost, zaměstnatelnost a platové ohodnocení žen. Tyto výstupy poslouží k optimalizaci nastavení IP, aby co nejlépe naplňovali stanovené cíle. 
 </t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Analyzované projekty výzev 61 a 62 OPZ se zaměřily téměř výhradně na ženy (skoro 99 %), nejčastěji na ekonomicky neaktivní ženy ve věku mezi 30 až 39 lety. Průměrný věk podpořené osoby činí 39 let.
 Polovina účastnic a účastníků získala podporu přesahující 115 hodin, tj. delší než dva týdny. Průměrná celková délka podpory na osobu bez započítání nedotovaného zaměstnání činila 200 hodin, tj. 25 dnů. Nejčastěji podpora trvala mezi 5 až 7,5 dny. Delší podporu získaly osoby ekonomicky neaktivní a většina osob získala podporu komplexní.
@@ -1084,6 +994,96 @@
 Přibližně třetina osob z analyzovaných projektů se před nebo po vstupu do projektu zúčastnila alespoň jednoho dalšího evropského projektu. Nejvíce osob se zapojilo do výzev ze stejného operačního programu podporujících aktivní politiku zaměstnanosti (APZ) realizované Úřadem práce ČR. Téměř každý desátý získal další podporu v rámci jednoho ze čtyř velkých projektů ÚP ČR z výzvy Nástroje APZ II zaměřených na rekvalifikace nebo zaměstnávání (VPP, SÚPM).</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Dopad/výsledky</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ex-post</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Operativní/procesní, Dopadová/Výsledková</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTA4MTEwODYwNTtQcmlsb2hhRE1TO0ZhbHNl</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Vyhodnocení_IS ESF_vyzvy-61,62.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OP Z</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>03.046.02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OP Z  •  Evaluace soutěžních projektů v rámci IP 1.2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Evaluace soutěžních projektů v rámci IP 1.2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Evaluace výzvy 81: Dotazníkové šetření s cílovou skupinou</t>
+        </is>
+      </c>
+      <c r="F8" s="2">
+        <v>45291</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ukončeno</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Procesní a dopadová evaluace projektu zaměřených na narovnávání genderových podmínek na trhu práce. Výsledky budou sloužit pro nastavení cílení projektu v dalším období.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Výsledky dotazníkového šetření zaměřeného na účastnice a účastníky projektů slouží ke zjištění přínosů projektů OPZ zaměřených na snižování genderové nerovnosti na trhu práce prostřednictvím opatření a činností, které nejsou součástí žádné z úzce zacílených výzev (služby péče o děti, genderové audity u zaměstnavatelů, implementace vládní strategie rovnosti žen a mužů ve státní správě a samosprávě).</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Výzva č. 081 ve svém nastavení cílila na odstranění projevů genderové diskriminace na trhu práce především v oblasti snižování rozdílů v odměňování žen a mužů. Projekty se však reálně zaměřily především na pomoc ženám při návratu do zaměstnání po MD/RD a při péči o malé děti a účastnice vnímaly přínosnost projektů v jiném smyslu, než jak se ve výzvě očekávalo. Účastnice nejčastěji uváděly, že jim projekty pomohly zvýšit sebevědomí, dále jim účast pomohla při návratu na trh práce, v získání pracovních kontaktů a nových dovedností / zvýšení kvalifikace. Více než přímý vliv na odměňování jim projektové aktivity umožnily získat měkké dovednosti a dostatečné sebevědomí, které jsou předpokladem pro získání vyšší pozice. Více než 70 % účastnic se domnívá, že jim účast na projektu může přispět k jejich lepšímu ohodnocení v budoucnosti. </t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>Ano</t>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ex-post</t>
+          <t>on-going</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTA4MTEwODYwNTtQcmlsb2hhRE1TO0ZhbHNl</t>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTM5NzIyNzcwMjtQcmlsb2hhRE1TO0ZhbHNl</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Vyhodnocení_IS ESF_vyzvy-61,62.pdf</t>
+          <t>Zpráva_Evaluace výzvy č. 81_FINAL.pdf</t>
         </is>
       </c>
     </row>
@@ -1133,22 +1133,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03.046.02</t>
+          <t>03.047.01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OP Z  •  Evaluace soutěžních projektů v rámci IP 1.2</t>
+          <t>OP Z  •  Evaluace projektu Outplacement</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Evaluace soutěžních projektů v rámci IP 1.2</t>
+          <t>Evaluace projektu Outplacement</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Evaluace výzvy 81: Dotazníkové šetření s cílovou skupinou</t>
+          <t>Dotazníkové šetření - vyhodnocení fungování a přínosu projektu Outplacement pro CS a zaměstnavatele</t>
         </is>
       </c>
       <c r="F9" s="2">
@@ -1161,108 +1161,18 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Procesní a dopadová evaluace projektu zaměřených na narovnávání genderových podmínek na trhu práce. Výsledky budou sloužit pro nastavení cílení projektu v dalším období.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Výsledky dotazníkového šetření zaměřeného na účastnice a účastníky projektů slouží ke zjištění přínosů projektů OPZ zaměřených na snižování genderové nerovnosti na trhu práce prostřednictvím opatření a činností, které nejsou součástí žádné z úzce zacílených výzev (služby péče o děti, genderové audity u zaměstnavatelů, implementace vládní strategie rovnosti žen a mužů ve státní správě a samosprávě).</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Výzva č. 081 ve svém nastavení cílila na odstranění projevů genderové diskriminace na trhu práce především v oblasti snižování rozdílů v odměňování žen a mužů. Projekty se však reálně zaměřily především na pomoc ženám při návratu do zaměstnání po MD/RD a při péči o malé děti a účastnice vnímaly přínosnost projektů v jiném smyslu, než jak se ve výzvě očekávalo. Účastnice nejčastěji uváděly, že jim projekty pomohly zvýšit sebevědomí, dále jim účast pomohla při návratu na trh práce, v získání pracovních kontaktů a nových dovedností / zvýšení kvalifikace. Více než přímý vliv na odměňování jim projektové aktivity umožnily získat měkké dovednosti a dostatečné sebevědomí, které jsou předpokladem pro získání vyšší pozice. Více než 70 % účastnic se domnívá, že jim účast na projektu může přispět k jejich lepšímu ohodnocení v budoucnosti. </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Dopad/výsledky</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Operativní/procesní, Dopadová/Výsledková</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTM5NzIyNzcwMjtQcmlsb2hhRE1TO0ZhbHNl</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Zpráva_Evaluace výzvy č. 81_FINAL.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>OP Z</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>03.047.01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>OP Z  •  Evaluace projektu Outplacement</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Evaluace projektu Outplacement</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Dotazníkové šetření - vyhodnocení fungování a přínosu projektu Outplacement pro CS a zaměstnavatele</t>
-        </is>
-      </c>
-      <c r="F10" s="2">
-        <v>45291</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ukončeno</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Předmětem evaluace je zhodnocení přínosu intervencí podporovaných z OPZ k naplňování cíle projektu, kterým je zmírnění negativních dopadů celosvětového problému s šířením
 onemocnění COVID-19 formou pomoci zaměstnancům, kteří jsou ohroženi ztrátou zaměstnání nebo jsou již ve výpovědní době, a na zvýšení adaptability těchto zaměstnanců pro nalezení nového pracovního uplatnění. Evaluace se zaměří na vnímání přínosu projektu pro zájemce o zaměstnání a místní trh práce (zaměstnavatele), a hodnocení vhodnosti volby konkrétní nabídky klíčových aktivit z hlediska CS. Dále bude evaluováno i procesní zajištění projektu a komunikace pracovníků ÚP s CS a zaměstnavateli.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">Předmětem evaluace je zhodnocení přínosu intervencí podporovaných z OPZ k naplňování cíle projektu, kterým je zmírnění negativních dopadů celosvětového problému s šířením
 onemocnění COVID-19 formou pomoci zaměstnancům, kteří jsou ohroženi ztrátou zaměstnání nebo jsou již ve výpovědní době, a na zvýšení adaptability těchto zaměstnanců pro nalezení nového pracovního uplatnění. Evaluace se zaměří na vnímání přínosu projektu pro zájemce o zaměstnání a místní trh práce (zaměstnavatele), a hodnocení vhodnosti volby konkrétní nabídky klíčových aktivit z hlediska CS. Probíhá sběr dat CAWI od klientů ve dvou fázích: 1. po vstupu do projektu, 2. před výstupem z projektu. V průběhu srpna 2021 připravena 1. průběžná zpráva založená na vyhodnocení dat sebraných od klientů po vstupu do projektu (1. fáze). V roce 2022 bylo provedeno 2. průběžné vyhodnocení (před). Na základě získaných výsledků byly upraveny parametry sběru dat. Závěrečné vyhodnocení obsahující výsledky analýzy z obou vln šetření a zároveň výsledky kvalitativního sběru dat bylo dokončeno v roce 2023. 
 </t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t xml:space="preserve">Mezi více než pěti tisícovkami podpořených osob bylo 55 % žen, převažovaly osoby se středním vzděláním, více než třetinu tvořili čtyřicátníci. Nejvíce byli podpořeni účastníci žijící ve strukturálně postižených regionech s nižším počtem volných pracovních míst: Ústecký, Moravskoslezský kraj.
 Účastníci měli zájem o hladký přechod z jednoho zaměstnání do druhého a práce s těmito klienty byla podle členů realizačního týmu projektu jednodušší než u některých jiných projektů. Klienti byly zejména osoby ke svému zaměstnavateli loajální, které pro něj pracovaly deset a více let. Komunikace mezi účastníky a realizačním týmem byla v podstatě bezproblémová. 
@@ -1271,90 +1181,90 @@
 </t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Jiná</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTA4MTk4NzQ5MDtQcmlsb2hhRE1TO0ZhbHNl</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Zpráva_Evaluace projektu Outplacement_FINAL.pdf</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>OP Z</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>03.047.02</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>OP Z  •  Evaluace projektu Outplacement</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Evaluace projektu Outplacement</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Kvalitativní šetření s CS, zaměstnavateli a realizačním týmem projektu</t>
         </is>
       </c>
-      <c r="F11" s="2">
+      <c r="F10" s="2">
         <v>45291</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ukončeno</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Předmětem evaluace je zhodnocení přínosu intervencí podporovaných z OPZ k naplňování cíle projektu, kterým je zmírnění negativních dopadů celosvětového problému s šířením
 onemocnění COVID-19 formou pomoci zaměstnancům, kteří jsou ohroženi ztrátou zaměstnání nebo jsou již ve výpovědní době, a na zvýšení adaptability těchto zaměstnanců pro nalezení nového pracovního uplatnění. Evaluace se zaměří na vnímání přínosu projektu pro zájemce o zaměstnání a místní trh práce (zaměstnavatele), a hodnocení vhodnosti volby konkrétní nabídky klíčových aktivit z hlediska CS. Dále bude evaluováno i procesní zajištění projektu a komunikace pracovníků ÚP s CS a zaměstnavateli.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Předmětem evaluace je zhodnocení přínosu intervencí podporovaných z OPZ k naplňování cíle projektu, kterým je zmírnění negativních dopadů celosvětového problému s šířením
 onemocnění COVID-19 formou pomoci zaměstnancům, kteří jsou ohroženi ztrátou zaměstnání nebo jsou již ve výpovědní době, a na zvýšení adaptability těchto zaměstnanců pro nalezení nového pracovního uplatnění. Evaluace se zaměří na vnímání přínosu projektu pro zájemce o zaměstnání a místní trh práce (zaměstnavatele), a hodnocení vhodnosti volby konkrétní nabídky klíčových aktivit z hlediska CS. 
 Dále bylo evaluováno i procesní zajištění projektu a komunikace pracovníků Úřadu práce s cílovou skupinou a zaměstnavateli. Kvalitativní šetření mělo být původně zajištěno externě formou veřejné zakázky. Ta nebyla s ohledem na menší rozsah projektu realizována a kvalitativní část šetření byla nahrazena interní evaluací rovněž kapacitami odd. evaluací. V rámci interní evaluace byly realizovány rozhovory, dotazníkové šetření a skupinová diskuse s realizačním týmem. Zbývající plánované kvalitativní šetření mezi zaměstnavateli bylo realizováno v omezeném rozsahu v rámci veřejné zakázky Realizace a vyhodnocení fokusních skupin. Výsledky kvalitativního šetření - procesní evaluace - jsou součástí závěrečné zprávy projektu.</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t xml:space="preserve">K realizaci projektu v plném rozsahu nedošlo kvůli lepšímu než očekávanému vývoji na trhu práce, jelikož se nezvýšil počet hromadných propouštění a ve většině okresů zůstávala míra nezaměstnanosti nízká. Důvodem nižšího zájmu o projekt byla také výrazná státní finanční podpora určená pro zaměstnavatele (např. program Antivirus), která měla za cíl udržení stávajících zaměstnanců při zavedení ekonomických restrikcí kvůli pandemii covid-19. Přesto byl rekrutován celý realizační tým zahrnující dva poradce na všech pracovištích ÚP ČR, což vedlo k méně efektivnímu využívání personálních kapacit v místech s nízkou absorpční kapacitou. 
 Z hlediska počtu účastníků projektu byl nejúspěšnějším obdobím realizace projektu rok 2021. Nárůst počtu účastníků také narušilo rozpočtové provizorium na počátku roku 2022 a od srpna 2022 pak nižší atraktivitu programu způsobilo zkracování délky poskytovaných příspěvků na zaměstnávání kvůli blížícímu se konci projektu.
@@ -1363,6 +1273,76 @@
 </t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Jiná</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>on-going</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OP ZP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>05.006.01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OP ZP  •  Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+        </is>
+      </c>
+      <c r="F11" s="2">
+        <v>45291</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ukončeno</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cílem projektu je provedení posouzení vlivu OPŽP 2021-2027 na životní prostředí v souladu s platnými právními předpisy.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cílem projektu je provedení posouzení vlivu OPŽP 2021-2027 na životní prostředí v souladu s platnými právními předpisy.</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Ano</t>
@@ -1383,36 +1363,56 @@
           <t>Jiná</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>horizontální témata</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>on-going</t>
+          <t>ad-hoc</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Strategická, Tematická</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODgwMjUyMzAxO1ByaWxvaGFETVM7RmFsc2U=</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Vyhodnocení SEA OPŽP 03082021.pdf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OP ZP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05.006.01</t>
+          <t>06.010.01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OP ZP  •  Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+          <t>IROP  •  Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Provedení hodnocení vlivu OPŽP na životní prostředí v období 2021-2027 (SEA)</t>
+          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
         </is>
       </c>
       <c r="F12" s="2">
@@ -1425,105 +1425,15 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cílem projektu je provedení posouzení vlivu OPŽP 2021-2027 na životní prostředí v souladu s platnými právními předpisy.</t>
+          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Cílem projektu je provedení posouzení vlivu OPŽP 2021-2027 na životní prostředí v souladu s platnými právními předpisy.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Jiná</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>horizontální témata</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>ad-hoc</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Strategická, Tematická</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODgwMjUyMzAxO1ByaWxvaGFETVM7RmFsc2U=</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Vyhodnocení SEA OPŽP 03082021.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>IROP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>06.010.01</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>IROP  •  Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
-        </is>
-      </c>
-      <c r="F13" s="2">
-        <v>45291</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ukončeno</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Posouzení vlivu IROP II. na životní prostředí pro programové období 2021-2027</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>Předmětem plnění je vyhodnocení vlivů IROP v programovém období 2021-2027 na životní prostředí a veřejné zdraví dle zákona č. 100/2001 Sb., o posuzování vlivů na životní prostředí, ve znění pozdějších předpisů, známé také jako SEA (Strategic Environmental Assessment).</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Jednotlivé priority, z nich plynoucí specifické cíle a celkové strategické směřování návrhu IROP jsou v souladu s relevantními cíli strategických dokumentů uvedených ve vyhodnocení SEA (konkrétně v kapitole 1), které mají vztah k životnímu prostředí a veřejnému zdraví.
 Potenciální negativní vlivy plynoucí z implementace Priority 1 nebyly identifikovány. 
@@ -1533,6 +1443,96 @@
 Podpora udržitelného a integrovaného rozvoje městských a venkovských oblastí a místních iniciativ bude v rámci Priority 5 realizována prostřednictvím komunitně vedeného místního rozvoje (CLLD), jehož typová a tematická variabilita je značná dle potřeb daných regionů. Obecně lze předpokládat, že takovýto typ rozvoje bude prováděn pro odstraňování problémů či bariér rozvoje v daných mikroregionech, a že by měl přispět k pozitivní stimulaci stavu životního prostředí. Nicméně mohou být do něj zahrnuty i takové aktivity, které mohou životní prostředí ovlivňovat potenciálně negativně. Příkladem lze potenciál možného mírného negativního ovlivnění identifikovat u podpory dopravní infrastruktury a infrastruktury pro cyklistickou dopravu či veřejné infrastruktury udržitelného cestovního ruchu.</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Jiná</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ex-ante</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Strategická, Operativní/procesní</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODU5NzUxMjA3O1ByaWxvaGFETVM7RmFsc2U=</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>01 SEA_IROP_2021_2027_Vyhodnoceni.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OP Z</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>03.044.01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OP Z  •  Evaluace výsledků výzvy Podpora programu Housing First (Bydlení především)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Evaluace výsledků výzvy Podpora programu Housing First (Bydlení především)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vyhodnocení dotazníku pro evaluaci dopadů programu HF pro řešení bytové nouze</t>
+        </is>
+      </c>
+      <c r="F13" s="2">
+        <v>45289</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ukončeno</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vyhodnotit přínosy projektů z výzvy na podporu pilotního rozšíření konceptu Housing First / Bydlení především pro cílové skupiny.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Od června 2019 probíhá příprava podkladů (scénářů dotazníků) pro interní sběr dat u příjemců podpory a cílové skupiny. Scénář dotazníku pro cílové skupiny před nastěhováním do sociálního bydlení byl v září 2019 opilotován a od října 2019 začíná plošný sběr dat. Během 2020 dokončeny verze dotazníku po 12 měsících / 24 měsících od zabydlení domácností.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>85 % domácností bydlelo v bytě poskytnutém v projektu alespoň 1 rok. U 89 % zabydlených se zvýšila spokojenost s bydlením. U 74 % domácností s dětmi došlo ke zkvalitnění prostoru pro děti. U 65 % zabydlených se zlepšil psychický stav (měřeno dle Kesslerovy škály psychosociální tísně). U 57 % se zvýšila spokojenost se životem (rok po zabydlení uvedlo 87 % dotázaných, že jsou spokojeni se životem).</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Ano</t>
@@ -1550,162 +1550,72 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Jiná</t>
+          <t>Dopad/výsledky</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ex-ante</t>
+          <t>on-going</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Strategická, Operativní/procesní</t>
+          <t>Dopadová/Výsledková</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODU5NzUxMjA3O1ByaWxvaGFETVM7RmFsc2U=</t>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQ4MTk3ODQ2O1ByaWxvaGFETVM7RmFsc2U=</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01 SEA_IROP_2021_2027_Vyhodnoceni.pdf</t>
+          <t>Housing First Charakteristika zabydlených domácností.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03.044.01</t>
+          <t>06.015.02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OP Z  •  Evaluace výsledků výzvy Podpora programu Housing First (Bydlení především)</t>
+          <t>IROP  •  Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Evaluace výsledků výzvy Podpora programu Housing First (Bydlení především)</t>
+          <t>Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vyhodnocení dotazníku pro evaluaci dopadů programu HF pro řešení bytové nouze</t>
+          <t>Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
         </is>
       </c>
       <c r="F14" s="2">
-        <v>45289</v>
+        <v>45275</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ukončeno</t>
+          <t>v realizaci</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>Vyhodnotit přínosy projektů z výzvy na podporu pilotního rozšíření konceptu Housing First / Bydlení především pro cílové skupiny.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Od června 2019 probíhá příprava podkladů (scénářů dotazníků) pro interní sběr dat u příjemců podpory a cílové skupiny. Scénář dotazníku pro cílové skupiny před nastěhováním do sociálního bydlení byl v září 2019 opilotován a od října 2019 začíná plošný sběr dat. Během 2020 dokončeny verze dotazníku po 12 měsících / 24 měsících od zabydlení domácností.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>85 % domácností bydlelo v bytě poskytnutém v projektu alespoň 1 rok. U 89 % zabydlených se zvýšila spokojenost s bydlením. U 74 % domácností s dětmi došlo ke zkvalitnění prostoru pro děti. U 65 % zabydlených se zlepšil psychický stav (měřeno dle Kesslerovy škály psychosociální tísně). U 57 % se zvýšila spokojenost se životem (rok po zabydlení uvedlo 87 % dotázaných, že jsou spokojeni se životem).</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Dopad/výsledky</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>on-going</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Dopadová/Výsledková</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7ODQ4MTk3ODQ2O1ByaWxvaGFETVM7RmFsc2U=</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Housing First Charakteristika zabydlených domácností.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IROP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>06.015.02</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>IROP  •  Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Vyhodnocení komunikačních aktivit 2018 - 2023 IROP</t>
-        </is>
-      </c>
-      <c r="F15" s="2">
-        <v>45275</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>v realizaci</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluace komunikačních aktivit realizovaných v letech 2018-2023 
 Integrovaného regionálního operačního programu 2014-2020 a Integrovaného regionálního operačního 
 programu 2021-2027. </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Hodnocení komunikačních aktivit navazuje na Vyhodnocení efektivity realizovaných komunikačních nástrojů ŘO IROP 2014-2020 (Deloitte, 2018),design je kombinací klasického evaluačního hodnocení (cíle, aktivity, výsledky, doporučení z předcházejícího hodnocení, 5U apod.)a marketingového hodnocení a metod, zejména vůči kampani React EU nebo webu IROP. Hlavními cíli hodnocení komunikačních nástrojů jsou: 
 - vyhodnocení komunikačních aktivit v letech 2018-2023 s akcentem na zohlednění závěrů a doporučení z Vyhodnocení efektivity realizovaných komunikačních nástrojů ŘO IROP I a posouzení dodržování principů 5U;
@@ -1718,87 +1628,87 @@
 procesní, finanční, personální apod.).</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Ne</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Jiná</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>plnění cílů</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>on-going</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTkxMjUxNzAxMDtQcmlsb2hhRE1TO0ZhbHNl</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Smlouva evaluace publicity IROP vč. příloh.pdf</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>OP PIK</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>01.026.04</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>OP PIK  •  Ex post evaluace OP PIK a replikace kontrafaktuální dopadové analýzy OP PI</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Ex post evaluace OP PIK a replikace kontrafaktuální dopadové analýzy OP PI</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Závěrečná zpráva OP PIK</t>
         </is>
       </c>
-      <c r="F16" s="2">
+      <c r="F15" s="2">
         <v>45267</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>ukončeno</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Komplexní souhrnná evaluace dopadů Operačního programu Podnikání a inovace pro konkurenceschopnost 2014?2020 (dále též ?OP PIK?) a opětovné kontrafaktuální vyhodnocení dopadů již dříve zpracované evaluace dopadů Operačního programu Podnikání a inovace za období 2007?2013 (déle též ?OP PI?). Primárním účelem je zjištění dopadů podpory poskytované z Evropských strukturálních a investičních fondů na konkurenceschopnost podpořených podniků, a to jak v krátkém (OP PIK), tak ve střednědobém období (OP PI). Na základě vyhodnocení se taktéž očekávají doporučení pro optimalizaci nastavení jednotlivých intervencí ve vztahu k implementaci Operačního programu Technologie a aplikace pro konkurenceschopnost 2021?2027 (dále též ?OP TAK?).</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Finální vyhodnocení a shrnutí všech částí evaluace zaměřené na hodnocení dopadů OP PIK. Odpověď na evaluační otázky: 
 EO1: Jaké jsou dopady podpory na ekonomickou situaci podpořených podniků a na jejich konkurenceschopnost ve srovnání s podniky nepodpořenými?
@@ -1807,7 +1717,7 @@
 EO4: Jak přispěl OP PIK k plnění horizontálních zásad?</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Podpora z OP PIK, dle kontrafaktuální analýzy, částečně přispívá k posilování konkurenceschopnosti MSP. Částečně statisticky významný dopad byl nalezen v případě indikátoru přidané hodnoty, podpořené podniky také vykazovaly vyšší tvorbu tržeb, dosahovaly vyšší rentability celkového kapitálu a zvýšila se jejich celková aktiva. V případě dalších klíčových indikátorů konkurenceschopnosti ale nebyly pozorovány významné přínosy podpory. 
 Podpora jednoznačně vede ke zvyšování zaměstnanosti v podpořených podnicích. 
@@ -1818,6 +1728,100 @@
 Program téměř nijak nepřispívá k podpoře zakládání nových podniků a rozvoji podnikavosti. Dopad OP PIK je rovněž velmi nízký co se týče rozšiřování přístupu k vysokorychlostnímu internetu.</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Dopad/výsledky</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ex-post</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Strategická, Dopadová/Výsledková</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTkwODUzNTI5ODtQcmlsb2hhRE1TO0ZhbHNl</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>03 ZZ_Expost OP PIK.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IROP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>06.014.01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IROP  •  Evaluace PO1 a PO3 IROP: Případové studie</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Evaluace PO1 a PO3 IROP: Případové studie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Evaluace PO1 a PO3 IROP</t>
+        </is>
+      </c>
+      <c r="F16" s="2">
+        <v>45267</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ukončeno</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Vyhodnocení výsledků projektů realizovaných v rámci specifických cílů 1.1, 1.2 a 1.3 Prioritní osy 1 IROP a projektů realizovaných v rámci specifických cílů 3.1 a 3.2 Prioritní osy 3 IROP.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Realizace výzkumu a zpracování evaluačních zpráv.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Díky podpořeným projektům se v průměru 3,6 % obcím v každém kraji zkrátila doba jízdy do svého krajského města. Dále se na modernizovaných úsecích podařilo uspořit asi 11 % denní spotřeby energií a paliv oproti stavu před realizací projektů, a to i se zahrnutím intenzity vozidel na hodnocených silnicích, která se v ČR dlouhodobě zvyšuje. Výrazněji pozitivní byla změna u těch projektů, kde došlo k výstavbě zcela nových úseků silnic (úspora až 32 %).
+V hodnocených lokalitách a regionech lze sice zachytit požadované trendy jako např. snižování dopadů na životní prostředí, růst podílu osob využívajících MHD, snížení účasti chodců na nehodách či zlepšování klíčových socioekonomických ukazatelů, ve většině případů se ale nepodařilo prokázat, že by se daný trend odvíjel od velikosti podpory ze SC 1.2.  Menší využívání automobilové dopravy oproti situaci před projektem deklarovali např. lidé využívající terminály v Plzni nebo v Benešově nebo lidé jezdící novými trolejbusy v Hradci Králové. Tedy všude tam, kde v návaznosti na projekt došlo k dalším systémovým změnám v organizaci dopravy.
+Na základě zjištění z případových studií lze konstatovat, že hodnocené projekty v SC 1.3 přispěly pro zmírnění následků a projevů mimořádných událostí zejména tím, že zrychlily reakční časy výjezdů, a buď zvýšením dostupnosti stanic místům s výskytem mimořádných jevů nebo zefektivněním jednotlivých kroků spojených s výjezdem. 
+Z hodnocení projektů v SC 3.1 vyplynulo, že přibližně dvě třetiny projektů přispěly ke zvýšení počtu pracovních míst v regionu (vytvořením nových pracovních pozic) nebo měly pozitivní vliv na lokální ekonomiku v návaznosti na zvýšenou návštěvnost míst. Významnější vliv lze spatřovat u zcela nově zpřístupněných lokalit a památek.
+</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>Ano</t>
@@ -1838,6 +1842,11 @@
           <t>Dopad/výsledky</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>plnění cílů</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>ex-post</t>
@@ -1845,17 +1854,17 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Strategická, Dopadová/Výsledková</t>
+          <t>Dopadová/Výsledková</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTkwODUzNTI5ODtQcmlsb2hhRE1TO0ZhbHNl</t>
+          <t>https://msiu.mssf.cz/Document.aspx?docID=VU1TUHJpbG9oeUV2YWw7MTkxMjAzNTg1NDtQcmlsb2hhRE1TO0ZhbHNl</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>03 ZZ_Expost OP PIK.pdf</t>
+          <t>231130_Zaverecna_zprava_EvaluacePO1_3_IROP_FINAL.pdf</t>
         </is>
       </c>
     </row>

--- a/evaluace.xlsx
+++ b/evaluace.xlsx
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Vyhodnocení výsledků projektů realizovaných v rámci specifických cílů 1.1, 1.2 a 1.3 Prioritní osy 1 IROP a projektů realizovaných v rámci specifických cílů 3.1 a 3.2 Prioritní osy 3 IROP.</t>
+          <t>Vyhodnocení výsledků projektů realizovaných v rámci specifických cílů 1.1, 1.2 a 1.3 Prioritní osy 1 IROP a projektů realizovaných v rámci specifického cíle 3.1 Prioritní osy 3 IROP.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
